--- a/LL tabulka.xlsx
+++ b/LL tabulka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe690078efb083ec/Počítač/MT/Škola/3. semester/IFJ/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B0317D-F78D-44CD-8BA7-5D222BCECAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{A9B0317D-F78D-44CD-8BA7-5D222BCECAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BDA5F10-3A24-42ED-8BBD-F53F7E2C9B6C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C42085B-4004-4949-A61F-E9C5FCDF816B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>&lt;program&gt;</t>
   </si>
@@ -83,21 +83,12 @@
     <t>&lt;arg&gt;</t>
   </si>
   <si>
-    <t>&lt;func_call_assignment&gt;</t>
-  </si>
-  <si>
-    <t>&lt;exp_assignment&gt;</t>
-  </si>
-  <si>
     <t>&lt;param_list&gt;</t>
   </si>
   <si>
     <t>&lt;param_next&gt;</t>
   </si>
   <si>
-    <t>&lt;type&gt;</t>
-  </si>
-  <si>
     <t>&lt;return_type&gt;</t>
   </si>
   <si>
@@ -137,62 +128,63 @@
     <t>var_id</t>
   </si>
   <si>
-    <t>str_lit</t>
-  </si>
-  <si>
-    <t>int_lit</t>
-  </si>
-  <si>
-    <t>flt_lit</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>function</t>
   </si>
   <si>
     <t>void</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>?int</t>
-  </si>
-  <si>
-    <t>flt</t>
-  </si>
-  <si>
-    <t>?flt</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>?str</t>
-  </si>
-  <si>
-    <t>strict_types</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>php_start</t>
-  </si>
-  <si>
-    <t>php_end</t>
+    <t>&lt;exp/ass_exp/ass_func&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ass_exp/ass_func&gt;</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>non_void_type</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">others = strict_types, :, else, ; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -207,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -215,12 +207,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -535,211 +805,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1FD7C4-9018-40EB-B692-6949B35497A9}">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="B1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="13.36328125" style="1" customWidth="1"/>
+    <col min="18" max="27" width="8.7265625" style="1"/>
+    <col min="28" max="28" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="2:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="2:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
+    </row>
+    <row r="5" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14"/>
+    </row>
+    <row r="6" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13">
+        <v>7</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <v>6</v>
+      </c>
+      <c r="I6" s="13">
+        <v>6</v>
+      </c>
+      <c r="J6" s="13">
+        <v>6</v>
+      </c>
+      <c r="K6" s="13">
+        <v>6</v>
+      </c>
+      <c r="L6" s="13">
+        <v>6</v>
+      </c>
+      <c r="M6" s="13">
+        <v>6</v>
+      </c>
+      <c r="N6" s="13">
+        <v>6</v>
+      </c>
+      <c r="O6" s="13">
+        <v>6</v>
+      </c>
+      <c r="P6" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13">
+        <v>5</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
+    </row>
+    <row r="7" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13">
+        <v>12</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14"/>
+    </row>
+    <row r="8" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
+        <v>9</v>
+      </c>
+      <c r="H8" s="13">
+        <v>10</v>
+      </c>
+      <c r="I8" s="13">
+        <v>10</v>
+      </c>
+      <c r="J8" s="13">
+        <v>10</v>
+      </c>
+      <c r="K8" s="13">
+        <v>10</v>
+      </c>
+      <c r="L8" s="13">
+        <v>10</v>
+      </c>
+      <c r="M8" s="13">
+        <v>10</v>
+      </c>
+      <c r="N8" s="13">
+        <v>10</v>
+      </c>
+      <c r="O8" s="13">
+        <v>10</v>
+      </c>
+      <c r="P8" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="14"/>
+    </row>
+    <row r="9" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13">
+        <v>13</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="14"/>
+    </row>
+    <row r="10" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13">
+        <v>14</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13">
+        <v>15</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="14"/>
+    </row>
+    <row r="11" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13">
+        <v>16</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13">
+        <v>17</v>
+      </c>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
+    </row>
+    <row r="12" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13">
+        <v>19</v>
+      </c>
+      <c r="R12" s="13">
+        <v>18</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
+        <v>20</v>
+      </c>
+      <c r="I13" s="13">
+        <v>21</v>
+      </c>
+      <c r="J13" s="13">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K13" s="13">
+        <v>23</v>
+      </c>
+      <c r="L13" s="13">
+        <v>33</v>
+      </c>
+      <c r="M13" s="13">
+        <v>33</v>
+      </c>
+      <c r="N13" s="13">
+        <v>34</v>
+      </c>
+      <c r="O13" s="13">
+        <v>33</v>
+      </c>
+      <c r="P13" s="13">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+    </row>
+    <row r="14" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13">
+        <v>24</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="14"/>
+    </row>
+    <row r="15" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13">
+        <v>25</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
+    </row>
+    <row r="16" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13">
+        <v>26</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="14"/>
+    </row>
+    <row r="17" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13">
+        <v>27</v>
+      </c>
+      <c r="N17" s="13">
+        <v>28</v>
+      </c>
+      <c r="O17" s="13">
+        <v>28</v>
+      </c>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+    </row>
+    <row r="18" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13">
+        <v>29</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U18" s="13"/>
+      <c r="V18" s="14"/>
+    </row>
+    <row r="19" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O19" s="13">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="14"/>
+    </row>
+    <row r="20" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
+        <v>35</v>
+      </c>
+      <c r="L20" s="13">
+        <v>36</v>
+      </c>
+      <c r="M20" s="13">
+        <v>36</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13">
+        <v>36</v>
+      </c>
+      <c r="P20" s="13">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13">
+        <v>35</v>
+      </c>
+      <c r="V20" s="14"/>
+    </row>
+    <row r="21" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13">
         <v>37</v>
       </c>
-      <c r="S1" t="s">
+      <c r="L21" s="13">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="M21" s="13">
+        <v>38</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13">
+        <v>38</v>
+      </c>
+      <c r="P21" s="13">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="14"/>
+    </row>
+    <row r="22" spans="2:22" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="M22" s="17">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="N22" s="17"/>
+      <c r="O22" s="17">
+        <v>42</v>
+      </c>
+      <c r="P22" s="17">
         <v>41</v>
       </c>
-      <c r="W1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="18"/>
+    </row>
+    <row r="24" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>